--- a/newwisedata/testssh_ans/mcmc5.xlsx
+++ b/newwisedata/testssh_ans/mcmc5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wf</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pv</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pv_wise</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dup</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ddown</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>D_wise</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -495,30 +500,33 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
         <v>3.72</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.17</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>170.9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>171.6</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>170.2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>193</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -532,30 +540,33 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.01</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.04</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>165</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>164.3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>208</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -569,30 +580,33 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
         <v>3.31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.1</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>160</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>160.3</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>159.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>143</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -606,30 +620,33 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.56</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.05</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>159</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>161.6</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>156.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>193</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -643,30 +660,33 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>130</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.88</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>252.3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>252.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>252</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>390</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>130</v>
       </c>
     </row>
@@ -680,30 +700,33 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.89</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.45</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.09</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>124.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>124.9</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>124.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>111</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>18</v>
       </c>
     </row>
@@ -717,19 +740,19 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.33</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.057</v>
       </c>
       <c r="G8" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>600</v>
@@ -738,9 +761,12 @@
         <v>600</v>
       </c>
       <c r="J8" t="n">
+        <v>600</v>
+      </c>
+      <c r="K8" t="n">
         <v>2938</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>470</v>
       </c>
     </row>
@@ -754,30 +780,33 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.49</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.02</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>311.1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>311.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>310.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>352</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>14</v>
       </c>
     </row>
@@ -791,30 +820,33 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.47</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.28</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>155.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>156.4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>153.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>242</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -828,30 +860,33 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
         <v>2.3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.03</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>261.7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>262.3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>261</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>254</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -865,30 +900,33 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.84</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.46</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.05</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>254.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>255.9</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>252.7</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>382</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>132</v>
       </c>
     </row>
@@ -902,30 +940,33 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.53</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.47</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.32</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>122.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>123.6</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>122.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>315</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -939,30 +980,33 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.26</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.05</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>325.6</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>327.4</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>323.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>628</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>17</v>
       </c>
     </row>
@@ -976,30 +1020,33 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>148</v>
+      </c>
+      <c r="D15" t="n">
         <v>4.99</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.09</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>144.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>144.8</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>144.6</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>97</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1013,30 +1060,33 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.88</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.03</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.09</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>189.6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>190.2</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>189</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>402</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1050,30 +1100,33 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>41</v>
+      </c>
+      <c r="D17" t="n">
         <v>2.75</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.48</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.13</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>175.8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>176.1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>175.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>200</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1087,30 +1140,33 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>32</v>
+      </c>
+      <c r="D18" t="n">
         <v>3.47</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.48</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.09</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>143.1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>143.4</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>142.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>180</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1124,30 +1180,33 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
         <v>2.64</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.49</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.1</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>209.4</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>210</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>208.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>203</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1161,30 +1220,33 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
         <v>2.29</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.36</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.04</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>353</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>354</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>352.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>352</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1198,30 +1260,33 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
         <v>2.04</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.09</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>143.9</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>144.4</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>143.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>140</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1235,30 +1300,33 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.21</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>152.4</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>152.7</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>152.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>214</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1272,19 +1340,19 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.47</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.24</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>600</v>
       </c>
       <c r="H23" t="n">
         <v>600</v>
@@ -1293,9 +1361,12 @@
         <v>600</v>
       </c>
       <c r="J23" t="n">
+        <v>600</v>
+      </c>
+      <c r="K23" t="n">
         <v>2877</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1309,30 +1380,33 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>104.5</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>104.8</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>104.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>87</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1346,30 +1420,33 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
         <v>4.67</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.13</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>131.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>131.9</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>131.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>102</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1383,30 +1460,33 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
         <v>4.63</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.47</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.17</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>122.7</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>123.8</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>121.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>101</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1420,30 +1500,33 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" t="n">
         <v>2.58</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0.43</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.02</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>242.9</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>243.4</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>242.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>193</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1457,30 +1540,33 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
         <v>2.34</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.37</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.05</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>187.9</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>188.4</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>187.3</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>236</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1494,30 +1580,33 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" t="n">
         <v>2.98</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.47</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.04</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>181.9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>182.2</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>181.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>153</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1531,30 +1620,33 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>17</v>
+      </c>
+      <c r="D30" t="n">
         <v>2.91</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.5</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.03</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>220.1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>220.7</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>219.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>234</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1568,19 +1660,19 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.28</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.24</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0.057</v>
       </c>
       <c r="G31" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>600</v>
@@ -1589,9 +1681,12 @@
         <v>600</v>
       </c>
       <c r="J31" t="n">
+        <v>600</v>
+      </c>
+      <c r="K31" t="n">
         <v>3107</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1605,30 +1700,33 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
         <v>2.82</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.48</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.15</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>182.3</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>182.9</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>181.7</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>228</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1642,30 +1740,33 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.75</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.49</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.38</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>112.6</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>113</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>112.1</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>218</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1679,30 +1780,33 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="D34" t="n">
         <v>3.05</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0.47</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>143.5</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>144</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>142.9</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>180</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1716,30 +1820,33 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.17</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.27</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.18</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>162.4</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>163.2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>161.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>273</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1753,30 +1860,33 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>18</v>
+      </c>
+      <c r="D36" t="n">
         <v>2.24</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.41</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.03</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>380.9</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>381.6</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>380.3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>360</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1790,28 +1900,31 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
         <v>3.6</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.33</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.04</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>233.9</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>238.4</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>229</v>
       </c>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1823,30 +1936,33 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>13</v>
+      </c>
+      <c r="D38" t="n">
         <v>2.5</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.43</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.12</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>110.6</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>112.5</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>108.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>67</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>28</v>
       </c>
     </row>
